--- a/data/trans_dic/P21D_5_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21D_5_R-Habitat-trans_dic.xlsx
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01288594243291444</v>
+        <v>0.0117382027650415</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01187657685540246</v>
+        <v>0.0102885372003655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.007250228245417905</v>
+        <v>0.006584709564129544</v>
       </c>
     </row>
     <row r="7">
@@ -637,10 +637,10 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.001237494707557448</v>
+        <v>0.001387974128325771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0006387185283128446</v>
+        <v>0.000708616290126235</v>
       </c>
     </row>
     <row r="9">
@@ -652,10 +652,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.01445904208075052</v>
+        <v>0.01443560064851839</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.007365134279172941</v>
+        <v>0.007341546273729183</v>
       </c>
     </row>
     <row r="10">
@@ -702,11 +702,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01376229667128646</v>
+        <v>0.01507712330651006</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.007931934417014994</v>
+        <v>0.0080380085366729</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>0.00399333014459445</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.006418256435882522</v>
+        <v>0.006418256435882523</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.005280180993995291</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002199683880781705</v>
+        <v>0.00212907297930645</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002085227543191159</v>
+        <v>0.00231004826034201</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01319943116286864</v>
+        <v>0.01484708887642751</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01677272831304958</v>
+        <v>0.01418666230330219</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0110691331461377</v>
+        <v>0.01167865619232211</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>0.002159880433428598</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.003941980535749518</v>
+        <v>0.003941980535749517</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.003085697296927659</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0006466689991591903</v>
+        <v>0.000520521535396228</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001937927992953743</v>
+        <v>0.001971867472932176</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.00173015162276338</v>
+        <v>0.001871902665510425</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.005570585622283544</v>
+        <v>0.005322143294216469</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.006893787165249727</v>
+        <v>0.00730965282363579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.005313505593969582</v>
+        <v>0.005303244363669046</v>
       </c>
     </row>
     <row r="19">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3713</v>
+        <v>3382</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3842</v>
+        <v>3328</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4434</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="8">
@@ -1031,10 +1031,10 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>621</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11">
@@ -1046,10 +1046,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>7270</v>
+        <v>7258</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7166</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="12">
@@ -1113,11 +1113,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5167</v>
+        <v>5660</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5977</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="16">
@@ -1169,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1078</v>
+        <v>1043</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1925</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="19">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5720</v>
+        <v>6434</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8219</v>
+        <v>6952</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10221</v>
+        <v>10784</v>
       </c>
     </row>
     <row r="20">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1013</v>
+        <v>816</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3284</v>
+        <v>3341</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5643</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="23">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8730</v>
+        <v>8340</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11681</v>
+        <v>12385</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17330</v>
+        <v>17296</v>
       </c>
     </row>
     <row r="24">
